--- a/data/datos01_ciencia_tecnologia.xlsx
+++ b/data/datos01_ciencia_tecnologia.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0. Pen DRive\0. CLM_en_datos\informe-2026\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0. Pen DRive\0. CLM_en_datos\informe-2026\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC618E-3221-4997-BCE9-3B51CD8659CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D580F6-2E83-49CF-B1AC-F6059EFC916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6770" yWindow="1990" windowWidth="22730" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="996" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ID_estad_act_i+d" sheetId="5" r:id="rId2"/>
+    <sheet name="ID_estad_act_i+d_t1" sheetId="5" r:id="rId2"/>
     <sheet name="TELECO_servicios" sheetId="2" r:id="rId3"/>
-    <sheet name="TIC_intern_web_t3" sheetId="3" r:id="rId4"/>
-    <sheet name="TIC_menos10_emp_t12" sheetId="4" r:id="rId5"/>
+    <sheet name="TIC_mas10_tablas" sheetId="6" r:id="rId4"/>
+    <sheet name="TIC_mas10_gatos" sheetId="7" r:id="rId5"/>
+    <sheet name="TIC_intern_web_t3" sheetId="3" r:id="rId6"/>
+    <sheet name="TIC_menos10_emp_t12" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Sector</t>
   </si>
@@ -87,15 +89,6 @@
     <t>España</t>
   </si>
   <si>
-    <t>Líneas telefonía fija</t>
-  </si>
-  <si>
-    <t>Líneas móviles pospago</t>
-  </si>
-  <si>
-    <t>Líneas banda ancha fija</t>
-  </si>
-  <si>
     <t>Abonados a TV de pago</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
   </si>
   <si>
     <t>Indicador</t>
-  </si>
-  <si>
-    <t>CLM_2023</t>
   </si>
   <si>
     <t>Administraciones
@@ -158,23 +148,141 @@
     <t xml:space="preserve">Personal total dedicado a I+D (EJC) </t>
   </si>
   <si>
-    <t>Mujeres investigadoras</t>
-  </si>
-  <si>
-    <t>España_2023</t>
+    <t>Equivalente a jornada completa de las mujeres dedicadas a I+D</t>
+  </si>
+  <si>
+    <t>España 2023</t>
+  </si>
+  <si>
+    <t>CLM 2023</t>
+  </si>
+  <si>
+    <t>Telefonía fija</t>
+  </si>
+  <si>
+    <t>Banda ancha fija</t>
+  </si>
+  <si>
+    <t>Telefonía móvil</t>
+  </si>
+  <si>
+    <t>CLM (%)</t>
+  </si>
+  <si>
+    <t>España (%)</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Seguridad TIC - España</t>
+  </si>
+  <si>
+    <t>Empresas que disponen de ordenadores*</t>
+  </si>
+  <si>
+    <t>Personal que utiliza ordenadores con fines empresariales</t>
+  </si>
+  <si>
+    <t>Personal que utiliza ordenadores conectados a Internet con fines empresariales</t>
+  </si>
+  <si>
+    <t>Empresas con sitio/página web**</t>
+  </si>
+  <si>
+    <t>Empresas que disponen de conexión a Internet*</t>
+  </si>
+  <si>
+    <t>Empresas que permiten teletrabajo*</t>
+  </si>
+  <si>
+    <t>Empleados que teletrabajan regularmente*</t>
+  </si>
+  <si>
+    <t>Empresas que realizan analítica de datos internamente**</t>
+  </si>
+  <si>
+    <t>Empresas que compran servicios de cloud computing**</t>
+  </si>
+  <si>
+    <t>Empresas que emplean tecnologías de IA**</t>
+  </si>
+  <si>
+    <t>Empresas que emplean especialistas en TIC*</t>
+  </si>
+  <si>
+    <t>32,8</t>
+  </si>
+  <si>
+    <t>Seguridad TIC-CLM</t>
+  </si>
+  <si>
+    <t>27,7</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>68,8</t>
+  </si>
+  <si>
+    <t>95,3</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>31,1</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>68,3</t>
+  </si>
+  <si>
+    <t>IA-CLM</t>
+  </si>
+  <si>
+    <t>IA-España</t>
+  </si>
+  <si>
+    <t>64,4</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>Empresas con mujeres especialistas TIC***</t>
+  </si>
+  <si>
+    <t>Personal especialista TIC****</t>
+  </si>
+  <si>
+    <t>Empresas que utilizan medios sociales**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="##,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0_)"/>
     <numFmt numFmtId="167" formatCode="General_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,12 +349,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -258,8 +360,73 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF70AD47"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +445,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -348,12 +521,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,38 +686,90 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_h11.1.1" xfId="1" xr:uid="{D740CF26-DD2E-4346-B42D-EBDA30593A09}"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,13 +1053,13 @@
       <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -751,7 +1081,7 @@
         <v>0.15340000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -762,7 +1092,7 @@
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -773,7 +1103,7 @@
         <v>0.57120000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -784,7 +1114,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -802,27 +1132,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E7EF02-5A22-4303-A4A7-1668F0D88F33}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>6</v>
@@ -831,78 +1163,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="24">
         <v>51041</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>91150</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>190075</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>565</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>332831</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="28">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="26">
         <v>714.6</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <v>1427</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>1786.8</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <v>15</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>3943.3999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="30">
-        <v>953</v>
-      </c>
-      <c r="C4" s="30">
-        <v>925</v>
-      </c>
-      <c r="D4" s="30">
-        <v>338.02778203400004</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31">
-        <v>2217.0277820340002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="31">
+        <v>410.6</v>
+      </c>
+      <c r="C4" s="31">
+        <v>643.29999999999995</v>
+      </c>
+      <c r="D4" s="31">
+        <v>610.29999999999995</v>
+      </c>
+      <c r="E4" s="31">
+        <v>4.8</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>6</v>
@@ -911,65 +1243,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="32">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="24">
         <v>3992243</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="24">
         <v>5708661</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="24">
         <v>12615739</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="24">
         <v>62511</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="24">
         <v>22379154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="28">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="26">
         <v>47755.8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>98957.2</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>134793.1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>909.1</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>282415.19999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="34">
-        <v>21640</v>
-      </c>
-      <c r="C8" s="34">
-        <v>65013</v>
-      </c>
-      <c r="D8" s="34">
-        <v>28170</v>
-      </c>
-      <c r="E8" s="34">
-        <v>381</v>
-      </c>
-      <c r="F8" s="35">
-        <v>115204</v>
-      </c>
+    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="26">
+        <v>26017.1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>46137.599999999999</v>
+      </c>
+      <c r="D8" s="26">
+        <v>42947.4</v>
+      </c>
+      <c r="E8" s="26">
+        <v>477.5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>115579.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,36 +1325,36 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1371,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1388,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1405,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1422,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1439,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1456,7 @@
         <v>11.477261494967099</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1473,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
@@ -1139,6 +1483,278 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8DE72-8676-4540-BEE4-60F9C67A3EB3}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="44">
+        <v>99.69</v>
+      </c>
+      <c r="C2" s="44">
+        <v>99.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="44">
+        <v>55.84</v>
+      </c>
+      <c r="C3" s="44">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="44">
+        <v>98.8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>99.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="44">
+        <v>49.59</v>
+      </c>
+      <c r="C5" s="44">
+        <v>63.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="48">
+        <v>5.95</v>
+      </c>
+      <c r="C6" s="48">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="46">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C7" s="46">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="46">
+        <v>24.12</v>
+      </c>
+      <c r="C8" s="46">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="46">
+        <v>54.89</v>
+      </c>
+      <c r="C9" s="46">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="46">
+        <v>21.23</v>
+      </c>
+      <c r="C10" s="46">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="46">
+        <v>23.48</v>
+      </c>
+      <c r="C11" s="46">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="46">
+        <v>7.63</v>
+      </c>
+      <c r="C12" s="46">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="50">
+        <v>8.48</v>
+      </c>
+      <c r="C13" s="50">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="50">
+        <v>45.92</v>
+      </c>
+      <c r="C14" s="50">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="50">
+        <v>1.27</v>
+      </c>
+      <c r="C15" s="50">
+        <v>4.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF7C0D3-5AD9-4BA4-A07D-2F47F5516D53}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4A92C9-B2A0-43A8-8A9F-17F7A85921CC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1146,12 +1762,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="105.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="8">
         <v>2024</v>
       </c>
@@ -1162,9 +1778,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10">
         <v>98.8</v>
@@ -1173,9 +1789,9 @@
         <v>99.13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10">
         <v>49.59</v>
@@ -1184,9 +1800,9 @@
         <v>63.29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="12">
         <v>95.41</v>
@@ -1195,9 +1811,9 @@
         <v>96.46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12">
         <v>90.2</v>
@@ -1206,9 +1822,9 @@
         <v>91.72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10">
         <v>34.159999999999997</v>
@@ -1217,9 +1833,9 @@
         <v>44.21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10">
         <v>75.900000000000006</v>
@@ -1228,7 +1844,7 @@
         <v>81.84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1238,20 +1854,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413F79CF-6FB6-4B5B-B049-8244FA610C62}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>13</v>
@@ -1260,9 +1876,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14">
         <v>83.87</v>
@@ -1271,9 +1887,9 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14">
         <v>0.47</v>
@@ -1282,9 +1898,9 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="14">
         <v>77.83</v>
@@ -1293,9 +1909,9 @@
         <v>83.81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="14">
         <v>82.4</v>
@@ -1304,9 +1920,9 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <v>88.04</v>
@@ -1315,9 +1931,9 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="14">
         <v>28.15</v>
@@ -1326,9 +1942,9 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="14">
         <v>28.18</v>
@@ -1337,9 +1953,9 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="20">
         <v>7.22</v>

--- a/data/datos01_ciencia_tecnologia.xlsx
+++ b/data/datos01_ciencia_tecnologia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0. Pen DRive\0. CLM_en_datos\informe-2026\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D580F6-2E83-49CF-B1AC-F6059EFC916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7270BD-D56F-4242-8A1A-30ACBA2234AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="996" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="1200" windowWidth="23040" windowHeight="12204" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,30 +193,9 @@
     <t>Personal que utiliza ordenadores conectados a Internet con fines empresariales</t>
   </si>
   <si>
-    <t>Empresas con sitio/página web**</t>
-  </si>
-  <si>
     <t>Empresas que disponen de conexión a Internet*</t>
   </si>
   <si>
-    <t>Empresas que permiten teletrabajo*</t>
-  </si>
-  <si>
-    <t>Empleados que teletrabajan regularmente*</t>
-  </si>
-  <si>
-    <t>Empresas que realizan analítica de datos internamente**</t>
-  </si>
-  <si>
-    <t>Empresas que compran servicios de cloud computing**</t>
-  </si>
-  <si>
-    <t>Empresas que emplean tecnologías de IA**</t>
-  </si>
-  <si>
-    <t>Empresas que emplean especialistas en TIC*</t>
-  </si>
-  <si>
     <t>32,8</t>
   </si>
   <si>
@@ -262,13 +241,34 @@
     <t>2,8</t>
   </si>
   <si>
-    <t>Empresas con mujeres especialistas TIC***</t>
-  </si>
-  <si>
-    <t>Personal especialista TIC****</t>
-  </si>
-  <si>
-    <t>Empresas que utilizan medios sociales**</t>
+    <t>Porcentaje de personal especialista TIC sobre el total de personal</t>
+  </si>
+  <si>
+    <t>Empleados que teletrabajan regularmente(i)</t>
+  </si>
+  <si>
+    <t>Empresas con sitio/página web(ii)</t>
+  </si>
+  <si>
+    <t>Empresas que permiten teletrabajo(i)</t>
+  </si>
+  <si>
+    <t>Empresas que utilizan medios sociales(ii)</t>
+  </si>
+  <si>
+    <t>Empresas que realizan analítica de datos internamente(ii)</t>
+  </si>
+  <si>
+    <t>Empresas que compran servicios de cloud computing(ii)</t>
+  </si>
+  <si>
+    <t>Empresas que emplean tecnologías de IA(ii)</t>
+  </si>
+  <si>
+    <t>Empresas que emplean especialistas en TIC(i)</t>
+  </si>
+  <si>
+    <t>Empresas con mujeres especialistas TIC(iii)</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E7EF02-5A22-4303-A4A7-1668F0D88F33}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8DE72-8676-4540-BEE4-60F9C67A3EB3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="44">
         <v>98.8</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B6" s="48">
         <v>5.95</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B7" s="46">
         <v>75.900000000000006</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B8" s="46">
         <v>24.12</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="46">
         <v>54.89</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B10" s="46">
         <v>21.23</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B11" s="46">
         <v>23.48</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B12" s="46">
         <v>7.63</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B13" s="50">
         <v>8.48</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="50">
         <v>45.92</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B15" s="50">
         <v>1.27</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
